--- a/Testdata/Allen_plus_Testdata.xlsx
+++ b/Testdata/Allen_plus_Testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11580" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,22 +20,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>WHEEP KUMAR BEHERA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>course name</t>
+  </si>
+  <si>
+    <t>The videos are available only on the Mobile App.</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Module name</t>
+  </si>
+  <si>
+    <t>batch name</t>
+  </si>
+  <si>
+    <t>No schedule available</t>
+  </si>
+  <si>
+    <t>Notifications 10</t>
+  </si>
+  <si>
+    <t>2022-2023 - NURTURE PHASE-I</t>
+  </si>
+  <si>
+    <t>PRE-MEDICAL</t>
+  </si>
+  <si>
+    <t>JAYANT KUMAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF495057"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -154,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -339,21 +416,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testdata/Allen_plus_Testdata.xlsx
+++ b/Testdata/Allen_plus_Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11580" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13950" windowHeight="5535"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -43,16 +43,16 @@
     <t>No schedule available</t>
   </si>
   <si>
-    <t>Notifications 10</t>
-  </si>
-  <si>
-    <t>2022-2023 - NURTURE PHASE-I</t>
-  </si>
-  <si>
-    <t>PRE-MEDICAL</t>
-  </si>
-  <si>
-    <t>JAYANT KUMAR</t>
+    <t>2023-2024 - CLASS X PHASE-I</t>
+  </si>
+  <si>
+    <t>PRASHASTI JAIN</t>
+  </si>
+  <si>
+    <t>Notifications 7</t>
+  </si>
+  <si>
+    <t>PRE-NURTURE</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/Testdata/Allen_plus_Testdata.xlsx
+++ b/Testdata/Allen_plus_Testdata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13950" windowHeight="5535"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14475" windowHeight="5430"/>
   </bookViews>
   <sheets>
-    <sheet name="Student" sheetId="1" r:id="rId1"/>
+    <sheet name="Student (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Student" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:E16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>user name</t>
   </si>
@@ -43,23 +44,149 @@
     <t>No schedule available</t>
   </si>
   <si>
-    <t>2023-2024 - CLASS X PHASE-I</t>
-  </si>
-  <si>
-    <t>PRASHASTI JAIN</t>
-  </si>
-  <si>
     <t>Notifications 7</t>
   </si>
   <si>
-    <t>PRE-NURTURE</t>
+    <t>Class Recordings</t>
+  </si>
+  <si>
+    <t>Access Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redeem Points </t>
+  </si>
+  <si>
+    <t>Earned</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Study Drop</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Digital Material</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Study Material</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Special Booklet</t>
+  </si>
+  <si>
+    <t>Class Notes</t>
+  </si>
+  <si>
+    <t>Recorded Content</t>
+  </si>
+  <si>
+    <t>Race Video Solutions</t>
+  </si>
+  <si>
+    <t>Exercise Video Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 22012281 vishal singh  </t>
+  </si>
+  <si>
+    <t>tanuja singh 22644884</t>
+  </si>
+  <si>
+    <t>JEE MAIN + ADVANCED</t>
+  </si>
+  <si>
+    <t>2023-2024 - ENTHUSIAST ADVANCE PHASE-I A</t>
+  </si>
+  <si>
+    <t>SRIANSU SUMAN MISHRA</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>SUBHASISH TRIPATHY      1000493232</t>
+  </si>
+  <si>
+    <t>// 1000561473  jayant kumar</t>
+  </si>
+  <si>
+    <t>SUBHASISH TRIPATHY</t>
+  </si>
+  <si>
+    <t>for live RITE124/123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubt &amp; Solution </t>
+  </si>
+  <si>
+    <t>Ask Doubt</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Bulletin Board</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>Knowledge Base</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support </t>
+  </si>
+  <si>
+    <t>Recreation Room</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Rate us</t>
+  </si>
+  <si>
+    <t>JEE MAIN</t>
+  </si>
+  <si>
+    <t>DUMST15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,33 +213,84 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF243B6B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,24 +298,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,40 +619,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1">
+        <v>1000536365</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1234455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -457,34 +674,555 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>1000616198</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="7">
+        <v>1000536365</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6">
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6">
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6">
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6">
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6">
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6">
+      <c r="A35" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6">
+      <c r="A37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6">
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6">
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6">
+      <c r="B40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6">
+      <c r="A43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="409.6">
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6">
+      <c r="A47" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="409.6">
+      <c r="A50" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="409.6">
+      <c r="A52" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="409.6">
+      <c r="A55" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="409.6">
+      <c r="A57" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="409.6">
+      <c r="A59" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="409.6">
+      <c r="A61" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" display="https://allenqa.thinkexam.com/admin/index.php?pageName=student/information&amp;Token=JmKKczWz2AdxPxYdv66ptViOLe*6tzoTL+Ykd14*Efyw8tuQiLfp50biUo7erHmhLcfWJUsStbQbMt6MyN9l2aqXlTw*GPMoX0DxvrTAtpM2ZjSurrYOKNRpsp9p3pkFtWCwXHH1UdXXG41f4Nn95HmeeIkSKqRYw51rCGPGGUZOIj2jb*pXs8esL*HBvXOiPAE1nuJRkoSmx5UAR4ayleMc2qUxaJIOtNbz1mgOywY*MePs1kOJblKOJpCd+cNNZrV+ITTA7UxSt2e7ipePcCpGxjFRBQReglHoyFFDmMa+7lTcYK6x876euZzpVBWjrDGdxAj4IKTwJVAKd1M2wCukzEDqmg1Aupp7gGNgxWd+Jsjd4K5i534XjUVjSuPKW6HqE0WtExC7edwGiIdRVw==&amp;viewStudentId=993254"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1">
+        <v>1000536365</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1234455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>1000616198</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="7">
+        <v>1000536365</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.6">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.6">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.6">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6">
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6">
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6">
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6">
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6">
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6">
+      <c r="A35" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6">
+      <c r="A37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6">
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6">
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6">
+      <c r="B40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6">
+      <c r="A43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="409.6">
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6">
+      <c r="A47" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="409.6">
+      <c r="A50" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="409.6">
+      <c r="A52" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="409.6">
+      <c r="A55" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="409.6">
+      <c r="A57" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="409.6">
+      <c r="A59" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="409.6">
+      <c r="A61" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" display="https://allenqa.thinkexam.com/admin/index.php?pageName=student/information&amp;Token=JmKKczWz2AdxPxYdv66ptViOLe*6tzoTL+Ykd14*Efyw8tuQiLfp50biUo7erHmhLcfWJUsStbQbMt6MyN9l2aqXlTw*GPMoX0DxvrTAtpM2ZjSurrYOKNRpsp9p3pkFtWCwXHH1UdXXG41f4Nn95HmeeIkSKqRYw51rCGPGGUZOIj2jb*pXs8esL*HBvXOiPAE1nuJRkoSmx5UAR4ayleMc2qUxaJIOtNbz1mgOywY*MePs1kOJblKOJpCd+cNNZrV+ITTA7UxSt2e7ipePcCpGxjFRBQReglHoyFFDmMa+7lTcYK6x876euZzpVBWjrDGdxAj4IKTwJVAKd1M2wCukzEDqmg1Aupp7gGNgxWd+Jsjd4K5i534XjUVjSuPKW6HqE0WtExC7edwGiIdRVw==&amp;viewStudentId=993254"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>